--- a/biology/Histoire de la zoologie et de la botanique/Edoardo_Perroncito/Edoardo_Perroncito.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edoardo_Perroncito/Edoardo_Perroncito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edoardo Bellarmino Perroncito (né le 10 mars 1847 à Viale dans la province d'Asti en Italie et mort le 4 novembre 1936) est un parasitologiste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son diplôme en médecine vétérinaire et, en 1879, il devient professeur de parasitologie de la Faculté de médecine vétérinaire de l'Université de Turin.
 </t>
@@ -542,10 +556,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec Camillo Bozzolo (1845-1920) et Luigi Pagliani (it) (1847-1931), il découvre que l'ankylostome (Ancylostoma duodenale) était la cause de l'anémie qui affectait les ouvriers lors de construction du tunnel ferroviaire du Saint-Gothard : ils ont démontré que la transmission de l'ankylostome était liée au fait que les ouvriers avaient de très mauvaises conditions d'hygiène dans les 15 km de tunnel[1]. Il est le premier à recommander l'utilisation de l'aspidium, extrait de fougère mâle comme traitement de la maladie[2].
-Il a aussi travaillé sur Pasteurella multocida, une bactérie découverte par le vétérinaire alsacien Moritz[3], responsable du choléra des poules.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec Camillo Bozzolo (1845-1920) et Luigi Pagliani (it) (1847-1931), il découvre que l'ankylostome (Ancylostoma duodenale) était la cause de l'anémie qui affectait les ouvriers lors de construction du tunnel ferroviaire du Saint-Gothard : ils ont démontré que la transmission de l'ankylostome était liée au fait que les ouvriers avaient de très mauvaises conditions d'hygiène dans les 15 km de tunnel. Il est le premier à recommander l'utilisation de l'aspidium, extrait de fougère mâle comme traitement de la maladie.
+Il a aussi travaillé sur Pasteurella multocida, une bactérie découverte par le vétérinaire alsacien Moritz, responsable du choléra des poules.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'anemia dei contadini, fornaciai e minatori in rapporto coll'attuale epidemia negli operai del Gottardo. Studi ed osservazioni, profilassi e cura, Turin, Camilla e Bertolero, 1881.
 Il carbonchio e le vaccinazioni carbonchiose, Turin, Camilla e Bertolero, 1882.
@@ -610,7 +628,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le père du pathologiste Aldo Perroncito (en) (1882-1929).
 </t>
